--- a/x2023-07-Tahliye-ademKESICI/mahkeme.xlsx
+++ b/x2023-07-Tahliye-ademKESICI/mahkeme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\x2023-07-Tahliye-ademKESICI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05774170-AC82-4DA9-8B5A-D452D026FB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F6EACD-CD45-4F51-89EB-AC08B7664F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="750" windowWidth="24330" windowHeight="14835" xr2:uid="{96728BF8-03FC-490C-A48F-7B62951E10FF}"/>
+    <workbookView xWindow="2070" yWindow="645" windowWidth="24330" windowHeight="14835" xr2:uid="{96728BF8-03FC-490C-A48F-7B62951E10FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Tarih</t>
   </si>
@@ -54,7 +54,16 @@
     <t>2021-2022-2023 yılları ödenmeyen kira bedelleri için ÖRNEK 13 ödeme emri gönderildi</t>
   </si>
   <si>
-    <t>ZAMANAŞIMI ???? İle Borca itiraz edildi</t>
+    <t>9:25 te ön inceleme duruşması</t>
+  </si>
+  <si>
+    <t>2023/348 İcra Hukuk Mahkemesi - İtirazın kaldırılması ve tahliye savası açıldı</t>
+  </si>
+  <si>
+    <t>Davalı-kiracı ZAMANAŞIMI ???? İle Borca itiraz etti</t>
+  </si>
+  <si>
+    <t>Davalı-kiracıya verilen 1 aylık borç ödeme süresi doldu</t>
   </si>
 </sst>
 </file>
@@ -111,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -130,6 +139,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -445,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCEE689-086B-4F57-8877-62BE544AA30A}">
-  <dimension ref="B1:D7"/>
+  <dimension ref="B1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,7 +496,7 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -493,24 +505,41 @@
         <v>45162</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
+        <v>45193</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
+        <v>45202</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
+        <v>45253</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="8"/>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/x2023-07-Tahliye-ademKESICI/mahkeme.xlsx
+++ b/x2023-07-Tahliye-ademKESICI/mahkeme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\x2023-07-Tahliye-ademKESICI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F6EACD-CD45-4F51-89EB-AC08B7664F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A83FA6-477F-435A-B07E-ADA769288938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="645" windowWidth="24330" windowHeight="14835" xr2:uid="{96728BF8-03FC-490C-A48F-7B62951E10FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{96728BF8-03FC-490C-A48F-7B62951E10FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Tarih</t>
   </si>
@@ -57,13 +57,94 @@
     <t>9:25 te ön inceleme duruşması</t>
   </si>
   <si>
-    <t>2023/348 İcra Hukuk Mahkemesi - İtirazın kaldırılması ve tahliye savası açıldı</t>
-  </si>
-  <si>
     <t>Davalı-kiracı ZAMANAŞIMI ???? İle Borca itiraz etti</t>
   </si>
   <si>
     <t>Davalı-kiracıya verilen 1 aylık borç ödeme süresi doldu</t>
+  </si>
+  <si>
+    <t>sözleşme</t>
+  </si>
+  <si>
+    <t>takip talebi</t>
+  </si>
+  <si>
+    <t>2021 yılı</t>
+  </si>
+  <si>
+    <t>2022 yılı</t>
+  </si>
+  <si>
+    <t>2023 yılı</t>
+  </si>
+  <si>
+    <t>toplam takip talebi</t>
+  </si>
+  <si>
+    <t>faiz</t>
+  </si>
+  <si>
+    <t>kira bedelleri</t>
+  </si>
+  <si>
+    <t>2023 yılı haziran tüfe % 59,95</t>
+  </si>
+  <si>
+    <t>2022 yılı haziran tüfe % 44,54</t>
+  </si>
+  <si>
+    <t>cevap dilekçesiyle birlikte mahkemeye banka makbuzlarını verdi</t>
+  </si>
+  <si>
+    <t>3 yılda ödemesi gereken miktar</t>
+  </si>
+  <si>
+    <t>2022-2023 kira bedeli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-2023 kira bedeli </t>
+  </si>
+  <si>
+    <t>2021 kira borcu</t>
+  </si>
+  <si>
+    <t>2021 kira faizi</t>
+  </si>
+  <si>
+    <t>2020-2021 yılı işyeri kira bedelleri</t>
+  </si>
+  <si>
+    <t>2023-2024 işyeri kira bedeli</t>
+  </si>
+  <si>
+    <t>2022 temmuz muhtasar</t>
+  </si>
+  <si>
+    <t>2022 ağustos muhtasar</t>
+  </si>
+  <si>
+    <t>SÖZLEŞME TARİHİ 30-06-2021  ESKİ DEKONTLARI 2021 ÖDEMESİ GİBİ SUNMUŞ</t>
+  </si>
+  <si>
+    <t>BANKA MAKBUZLARI İLE YAPILAN ÖDEME MİKTARI</t>
+  </si>
+  <si>
+    <t>TEMERRÜT MİKTARI</t>
+  </si>
+  <si>
+    <t>2023/348 İcra Hukuk Mahkemesi - İtirazın kaldırılması ve tahliye davası açıldı</t>
+  </si>
+  <si>
+    <t>30-06-2021 tarihli 34,092.00 TL bedelli</t>
+  </si>
+  <si>
+    <t>tensip zaptında davalıdan cevap dilekçesi istendi 23-11-23  09:25  e ön inceleme duruşması için gün verildi</t>
+  </si>
+  <si>
+    <t>banka kanalıyla yapılan ödemelerin makbuzları</t>
+  </si>
+  <si>
+    <t>takip talebinde tarafımızca tahsili istenen toplam alacak</t>
   </si>
 </sst>
 </file>
@@ -73,7 +154,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,13 +180,28 @@
       <family val="2"/>
       <charset val="162"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -120,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -143,6 +239,35 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCEE689-086B-4F57-8877-62BE544AA30A}">
-  <dimension ref="B1:D8"/>
+  <dimension ref="B1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,80 +593,419 @@
     <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="75.140625" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="62.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="7">
         <v>45155</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="7">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="13">
+        <v>9092</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="13">
+        <v>30000</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="13">
+        <v>50000</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="13">
+        <f>SUM(C6:C8)</f>
+        <v>89092</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="13">
+        <v>12458</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="11">
+        <f>SUM(C9:C10)</f>
+        <v>101550</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="14">
+        <v>34092</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="14">
+        <f>C14+(C14*D15)</f>
+        <v>49276.576800000003</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0.44540000000000002</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="14">
+        <f>C15+(C15*D16)</f>
+        <v>78817.884591600014</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0.59950000000000003</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+      <c r="C17" s="11">
+        <f>SUM(C14:C16)</f>
+        <v>162186.46139160002</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="7">
+        <v>44789</v>
+      </c>
+      <c r="C19" s="2">
+        <v>25000</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
+        <v>44809</v>
+      </c>
+      <c r="C20" s="2">
+        <v>12500</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
         <v>45162</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="9" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="7">
+        <v>45193</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
-        <v>45193</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
+    <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
         <v>45202</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="7">
+        <v>45202</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="7">
+        <v>45209</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="7"/>
+      <c r="C29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="17">
+        <v>44032</v>
+      </c>
+      <c r="C30" s="10">
+        <v>23000</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="17">
+        <v>44032</v>
+      </c>
+      <c r="C31" s="10">
+        <v>23000</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="7">
+        <v>44389</v>
+      </c>
+      <c r="C33" s="2">
+        <v>25000</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="7">
+        <v>44789</v>
+      </c>
+      <c r="C34" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="7">
+        <v>44746</v>
+      </c>
+      <c r="C35" s="2">
+        <v>20000</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="7">
+        <v>45118</v>
+      </c>
+      <c r="C36" s="2">
+        <v>50000</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="7">
+        <v>45192</v>
+      </c>
+      <c r="C37" s="2">
+        <v>9100</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="7">
+        <v>45192</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2230</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="7"/>
+      <c r="C39" s="11">
+        <f>SUM(C33:C38)</f>
+        <v>116330</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="7"/>
+      <c r="C40" s="18">
+        <f>C17-C39</f>
+        <v>45856.461391600023</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="7">
         <v>45253</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9" t="s">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/x2023-07-Tahliye-ademKESICI/mahkeme.xlsx
+++ b/x2023-07-Tahliye-ademKESICI/mahkeme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\x2023-07-Tahliye-ademKESICI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A83FA6-477F-435A-B07E-ADA769288938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA3A1BC-3FF5-4D6C-AD75-7AE258FA081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{96728BF8-03FC-490C-A48F-7B62951E10FF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Tarih</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>takip talebinde tarafımızca tahsili istenen toplam alacak</t>
+  </si>
+  <si>
+    <t>Tebliğ tarihi</t>
   </si>
 </sst>
 </file>
@@ -582,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCEE689-086B-4F57-8877-62BE544AA30A}">
-  <dimension ref="B1:E42"/>
+  <dimension ref="B1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,33 +810,33 @@
       <c r="E21" s="9"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="7">
-        <v>45162</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="9" t="s">
-        <v>7</v>
+      <c r="B22" s="17">
+        <v>45161</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
-        <v>45193</v>
+        <v>45162</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="7">
-        <v>45202</v>
+        <v>45193</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="9" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -843,43 +846,41 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="7">
+        <v>45202</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="8"/>
-    </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="7">
+      <c r="B28" s="7"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="7">
         <v>45209</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="9" t="s">
+      <c r="D29" s="10"/>
+      <c r="E29" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-      <c r="C29" s="20" t="s">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
+      <c r="C30" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="17">
-        <v>44032</v>
-      </c>
-      <c r="C30" s="10">
-        <v>23000</v>
-      </c>
       <c r="D30" s="10"/>
-      <c r="E30" s="12" t="s">
-        <v>25</v>
-      </c>
+      <c r="E30" s="9"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="17">
@@ -894,70 +895,70 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="17" t="s">
+      <c r="B32" s="17">
+        <v>44032</v>
+      </c>
+      <c r="C32" s="10">
+        <v>23000</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="7">
-        <v>44389</v>
-      </c>
-      <c r="C33" s="2">
-        <v>25000</v>
-      </c>
       <c r="D33" s="2"/>
-      <c r="E33" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="E33" s="9"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
-        <v>44789</v>
+        <v>44389</v>
       </c>
       <c r="C34" s="2">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="7">
-        <v>44746</v>
+        <v>44789</v>
       </c>
       <c r="C35" s="2">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="7">
-        <v>45118</v>
+        <v>44746</v>
       </c>
       <c r="C36" s="2">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="7">
-        <v>45192</v>
+        <v>45118</v>
       </c>
       <c r="C37" s="2">
-        <v>9100</v>
+        <v>50000</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
@@ -965,42 +966,54 @@
         <v>45192</v>
       </c>
       <c r="C38" s="2">
-        <v>2230</v>
+        <v>9100</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="7">
+        <v>45192</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2230</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="9" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="7"/>
-      <c r="C39" s="11">
-        <f>SUM(C33:C38)</f>
-        <v>116330</v>
-      </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
-      <c r="C40" s="18">
-        <f>C17-C39</f>
+      <c r="C40" s="11">
+        <f>SUM(C34:C39)</f>
+        <v>116330</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="7"/>
+      <c r="C41" s="18">
+        <f>C17-C40</f>
         <v>45856.461391600023</v>
       </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="19" t="s">
+      <c r="D41" s="2"/>
+      <c r="E41" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="7">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="7">
         <v>45253</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="9" t="s">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="9" t="s">
         <v>6</v>
       </c>
     </row>

--- a/x2023-07-Tahliye-ademKESICI/mahkeme.xlsx
+++ b/x2023-07-Tahliye-ademKESICI/mahkeme.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\x2023-07-Tahliye-ademKESICI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA3A1BC-3FF5-4D6C-AD75-7AE258FA081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E8EAF1-340A-4185-99AB-6DDDFDDD818A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{96728BF8-03FC-490C-A48F-7B62951E10FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Tarih</t>
   </si>
@@ -87,30 +87,15 @@
     <t>kira bedelleri</t>
   </si>
   <si>
-    <t>2023 yılı haziran tüfe % 59,95</t>
-  </si>
-  <si>
-    <t>2022 yılı haziran tüfe % 44,54</t>
-  </si>
-  <si>
     <t>cevap dilekçesiyle birlikte mahkemeye banka makbuzlarını verdi</t>
   </si>
   <si>
-    <t>3 yılda ödemesi gereken miktar</t>
-  </si>
-  <si>
     <t>2022-2023 kira bedeli</t>
   </si>
   <si>
     <t xml:space="preserve">2022-2023 kira bedeli </t>
   </si>
   <si>
-    <t>2021 kira borcu</t>
-  </si>
-  <si>
-    <t>2021 kira faizi</t>
-  </si>
-  <si>
     <t>2020-2021 yılı işyeri kira bedelleri</t>
   </si>
   <si>
@@ -126,9 +111,6 @@
     <t>SÖZLEŞME TARİHİ 30-06-2021  ESKİ DEKONTLARI 2021 ÖDEMESİ GİBİ SUNMUŞ</t>
   </si>
   <si>
-    <t>BANKA MAKBUZLARI İLE YAPILAN ÖDEME MİKTARI</t>
-  </si>
-  <si>
     <t>TEMERRÜT MİKTARI</t>
   </si>
   <si>
@@ -148,6 +130,39 @@
   </si>
   <si>
     <t>Tebliğ tarihi</t>
+  </si>
+  <si>
+    <t>Dosya hesap için bilirkişiye yollandı</t>
+  </si>
+  <si>
+    <t>9:03 te duruşma</t>
+  </si>
+  <si>
+    <t>2021 kira borcu                                                       GEÇ ÖDEME</t>
+  </si>
+  <si>
+    <t>2021 kira faizi                                                        GEÇ ÖDEME</t>
+  </si>
+  <si>
+    <t>2020-2021 yılı işyeri kira bedelleri                          dönem dışı</t>
+  </si>
+  <si>
+    <t>BANKA MAKBUZLARI İLE YAPILAN GEÇERLİ ÖDEME MİKTARI</t>
+  </si>
+  <si>
+    <t>2021 yılı                                                                               34092</t>
+  </si>
+  <si>
+    <t>resmi olarak 3 yılda ödemesi gereken miktar            ( 194092 gerçek)</t>
+  </si>
+  <si>
+    <t>2022 yılı haziran tüfe % 44,54                                           60000 tüfe üstü</t>
+  </si>
+  <si>
+    <t>2023 yılı haziran tüfe % 59,95                                         100000 tüfe üstü</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           &lt;-</t>
   </si>
 </sst>
 </file>
@@ -193,7 +208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +218,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -271,6 +292,21 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCEE689-086B-4F57-8877-62BE544AA30A}">
-  <dimension ref="B1:E43"/>
+  <dimension ref="B1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +675,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -709,7 +745,7 @@
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -733,7 +769,7 @@
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="9" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
@@ -746,7 +782,7 @@
         <v>0.44540000000000002</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
@@ -759,7 +795,7 @@
         <v>0.59950000000000003</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -768,9 +804,11 @@
         <f>SUM(C14:C16)</f>
         <v>162186.46139160002</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="E17" s="12" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -788,7 +826,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -800,7 +838,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -816,7 +854,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -846,7 +884,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -856,7 +894,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
@@ -871,44 +909,44 @@
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
       <c r="C30" s="20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="9"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="17">
+      <c r="B31" s="25">
         <v>44032</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="26">
         <v>23000</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="12" t="s">
-        <v>25</v>
+      <c r="D31" s="26"/>
+      <c r="E31" s="27" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="17">
+      <c r="B32" s="25">
         <v>44032</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="26">
         <v>23000</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="12" t="s">
-        <v>25</v>
+      <c r="D32" s="26"/>
+      <c r="E32" s="27" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C33" s="17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="9"/>
@@ -922,7 +960,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
@@ -934,7 +972,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
@@ -946,7 +984,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
@@ -958,53 +996,53 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="7">
+      <c r="B38" s="22">
         <v>45192</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="23">
         <v>9100</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="9" t="s">
-        <v>23</v>
+      <c r="D38" s="23"/>
+      <c r="E38" s="24" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="7">
+      <c r="B39" s="22">
         <v>45192</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="23">
         <v>2230</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="9" t="s">
-        <v>24</v>
+      <c r="D39" s="23"/>
+      <c r="E39" s="24" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
       <c r="C40" s="11">
-        <f>SUM(C34:C39)</f>
-        <v>116330</v>
+        <f>SUM(C34:C37)</f>
+        <v>105000</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="12" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="7"/>
       <c r="C41" s="18">
         <f>C17-C40</f>
-        <v>45856.461391600023</v>
+        <v>57186.461391600023</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
@@ -1015,6 +1053,19 @@
       <c r="D43" s="2"/>
       <c r="E43" s="9" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="21">
+        <v>45295</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/x2023-07-Tahliye-ademKESICI/mahkeme.xlsx
+++ b/x2023-07-Tahliye-ademKESICI/mahkeme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\x2023-07-Tahliye-ademKESICI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E8EAF1-340A-4185-99AB-6DDDFDDD818A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B24FC4-D96D-40B3-A1E1-5040241A0D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{96728BF8-03FC-490C-A48F-7B62951E10FF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Tarih</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t xml:space="preserve">           &lt;-</t>
+  </si>
+  <si>
+    <t>Bilirkiş %10 artış hesaplamış temmerrüt oluşmadı diye rapor vermiş</t>
   </si>
 </sst>
 </file>
@@ -240,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -307,6 +310,7 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCEE689-086B-4F57-8877-62BE544AA30A}">
-  <dimension ref="B1:E45"/>
+  <dimension ref="B1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,10 +1065,18 @@
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="21">
+      <c r="B45" s="28">
+        <v>45264</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="21">
         <v>45295</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E46" s="9" t="s">
         <v>33</v>
       </c>
     </row>
